--- a/biology/Mycologie/Clitocybe_geotropa/Clitocybe_geotropa.xlsx
+++ b/biology/Mycologie/Clitocybe_geotropa/Clitocybe_geotropa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tête-de-moine
-Infundibulicybe geotropa, la Tête-de-moine, est une espèce de champignons basidiomycètes du genre Infundibulicybe[1] (genre placé par la phylogénétique entre deux clades : Marasmioïde et Tricholomatoïde).
+Infundibulicybe geotropa, la Tête-de-moine, est une espèce de champignons basidiomycètes du genre Infundibulicybe (genre placé par la phylogénétique entre deux clades : Marasmioïde et Tricholomatoïde).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore : chapeau de 7 à 20 cm, à l'état juvénile présente un aspect en forme de quille, puis il devient convexe à vaguement conico-campanulé devenant ensuite adulte plat et mamelonné puis se creusant en entonnoir, à marge lisse se fissurant à l'humidité, il se développe généralement en groupes de quelques individus, en cercles ou en lignes.
 Cuticule : de couleur crème à beige ou cannelle à brun clair voire ocre pâle
@@ -548,7 +562,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse sur le sol dans les forêts caducifoliées jusqu'aux premières gelées, bois de feuillus bien aérés, en lisière et clairière de ceux-ci, mais aussi dans les prairies les bordant, plus rarement sous résineux, il apprécie les sols calcaires.
 </t>
@@ -579,7 +595,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un comestible de valeur moyenne, dont le pied fibreux et généralement rejeté, devient assez coriace s'il n'est pas dégusté à l'état juvénile.
 </t>
@@ -610,7 +628,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe.
 </t>
@@ -641,11 +661,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Infundibulicybe geotropa (Bull. ex DC.) Harmaja, 2003[2].
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus geotropus Bull. ex DC., 1805[2].
-Infundibulicybe geotropa a pour synonymes[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Infundibulicybe geotropa (Bull. ex DC.) Harmaja, 2003.
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus geotropus Bull. ex DC., 1805.
+Infundibulicybe geotropa a pour synonymes :
 Agaricus geotropus Bull. ex DC., 1805
 Agaricus stereopus Pers., 1828
 Clitocybe geotropa (Bull. ex DC.) Quél., 1872
@@ -678,6 +700,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
